--- a/data/childrens-books.xlsx
+++ b/data/childrens-books.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="105">
   <si>
     <t>Author</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Twain</t>
   </si>
   <si>
-    <t>Ann of Green Gables</t>
-  </si>
-  <si>
     <t>Little Women</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>Learning about relationships</t>
+  </si>
+  <si>
+    <t>Anne of Green Gables</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -746,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>10</v>
@@ -758,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>12</v>
@@ -782,7 +782,7 @@
         <v>17</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
@@ -966,7 +966,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -1061,6 +1061,9 @@
       <c r="K12" t="s">
         <v>19</v>
       </c>
+      <c r="R12" t="s">
+        <v>19</v>
+      </c>
       <c r="T12" t="s">
         <v>19</v>
       </c>
@@ -1169,10 +1172,10 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
         <v>88</v>
-      </c>
-      <c r="B16" t="s">
-        <v>89</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -1204,7 +1207,7 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M17" t="s">
         <v>19</v>
@@ -1312,7 +1315,7 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
@@ -1338,7 +1341,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
@@ -1358,7 +1361,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
@@ -1378,10 +1381,10 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s">
         <v>19</v>
@@ -1416,10 +1419,10 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
@@ -1448,10 +1451,10 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -1486,10 +1489,10 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s">
         <v>19</v>
@@ -1506,10 +1509,10 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
@@ -1532,10 +1535,10 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
         <v>19</v>
@@ -1552,10 +1555,10 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H29" t="s">
         <v>19</v>
@@ -1578,10 +1581,10 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
@@ -1598,10 +1601,10 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H31" t="s">
         <v>19</v>
@@ -1618,10 +1621,10 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
@@ -1659,10 +1662,10 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
@@ -1691,10 +1694,10 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
@@ -1738,10 +1741,10 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
         <v>19</v>
@@ -1776,10 +1779,10 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
@@ -1799,10 +1802,10 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
         <v>19</v>
@@ -1834,10 +1837,10 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
         <v>19</v>
@@ -1872,10 +1875,10 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
@@ -1907,10 +1910,10 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
@@ -1939,10 +1942,10 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
@@ -1968,7 +1971,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
         <v>19</v>
@@ -1988,7 +1991,7 @@
         <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
         <v>19</v>
@@ -2011,7 +2014,7 @@
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
@@ -2034,10 +2037,10 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
         <v>19</v>
@@ -2072,10 +2075,10 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
@@ -2104,10 +2107,10 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
@@ -2145,10 +2148,10 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
         <v>19</v>

--- a/data/childrens-books.xlsx
+++ b/data/childrens-books.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$48</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="105">
   <si>
     <t>Author</t>
   </si>
@@ -693,13 +696,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,7 +789,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -811,7 +815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -840,7 +844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -860,7 +864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -889,7 +893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -918,7 +922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -944,7 +948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -961,7 +965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -981,7 +985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1061,6 +1065,9 @@
       <c r="K12" t="s">
         <v>19</v>
       </c>
+      <c r="O12" t="s">
+        <v>19</v>
+      </c>
       <c r="R12" t="s">
         <v>19</v>
       </c>
@@ -1074,7 +1081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1109,7 +1116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1141,7 +1148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -1170,7 +1177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -1202,7 +1209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1234,7 +1241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>42</v>
       </c>
@@ -1266,7 +1273,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1310,7 +1317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1339,7 +1346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>104</v>
       </c>
@@ -1359,7 +1366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>47</v>
       </c>
@@ -1379,7 +1386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1417,7 +1424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1449,7 +1456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1487,7 +1494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1507,7 +1514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1533,7 +1540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1553,7 +1560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -1579,7 +1586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1599,7 +1606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1619,7 +1626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -1660,7 +1667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -1777,7 +1784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -1800,7 +1807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -1835,7 +1842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -1873,7 +1880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -1908,7 +1915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -1940,7 +1947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -1969,7 +1976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>90</v>
       </c>
@@ -1986,7 +1993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -2009,7 +2016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -2035,7 +2042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>99</v>
       </c>
@@ -2073,7 +2080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -2105,7 +2112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -2146,7 +2153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -2176,6 +2183,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Y48">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="A Wizard of Earthsea"/>
+        <filter val="Narnia"/>
+        <filter val="The Hobbit"/>
+        <filter val="The Once and Future King"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>